--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50041.62457446437</v>
+        <v>50041.62457446438</v>
       </c>
     </row>
     <row r="7">
@@ -26317,16 +26319,16 @@
         <v>31526.47729194457</v>
       </c>
       <c r="D2" t="n">
+        <v>31526.47729194457</v>
+      </c>
+      <c r="E2" t="n">
         <v>31526.47729194456</v>
-      </c>
-      <c r="E2" t="n">
-        <v>31526.47729194457</v>
       </c>
       <c r="F2" t="n">
         <v>31526.47729194457</v>
       </c>
       <c r="G2" t="n">
-        <v>31526.47729194456</v>
+        <v>31526.47729194457</v>
       </c>
       <c r="H2" t="n">
         <v>31526.47729194457</v>
@@ -26335,7 +26337,7 @@
         <v>31526.47729194457</v>
       </c>
       <c r="J2" t="n">
-        <v>31526.47729194457</v>
+        <v>31526.47729194456</v>
       </c>
       <c r="K2" t="n">
         <v>31526.47729194457</v>
@@ -26525,7 +26527,7 @@
         <v>-16651.80453510676</v>
       </c>
       <c r="D6" t="n">
-        <v>-16651.80453510677</v>
+        <v>-16651.80453510676</v>
       </c>
       <c r="E6" t="n">
         <v>16975.79546489323</v>
@@ -26534,16 +26536,16 @@
         <v>16975.79546489324</v>
       </c>
       <c r="G6" t="n">
+        <v>16975.79546489324</v>
+      </c>
+      <c r="H6" t="n">
         <v>16975.79546489323</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16975.79546489324</v>
       </c>
       <c r="I6" t="n">
         <v>16975.79546489324</v>
       </c>
       <c r="J6" t="n">
-        <v>16975.79546489324</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="K6" t="n">
         <v>16975.79546489324</v>
@@ -26552,10 +26554,10 @@
         <v>16975.79546489324</v>
       </c>
       <c r="M6" t="n">
-        <v>16975.79546489324</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="N6" t="n">
-        <v>16975.79546489324</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="O6" t="n">
         <v>16975.79546489323</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50041.62457446438</v>
+        <v>38442.78061259382</v>
       </c>
     </row>
     <row r="7">
@@ -26322,7 +26322,7 @@
         <v>31526.47729194457</v>
       </c>
       <c r="E2" t="n">
-        <v>31526.47729194456</v>
+        <v>31526.47729194457</v>
       </c>
       <c r="F2" t="n">
         <v>31526.47729194457</v>
@@ -26337,7 +26337,7 @@
         <v>31526.47729194457</v>
       </c>
       <c r="J2" t="n">
-        <v>31526.47729194456</v>
+        <v>31526.47729194457</v>
       </c>
       <c r="K2" t="n">
         <v>31526.47729194457</v>
@@ -26352,7 +26352,7 @@
         <v>31526.47729194457</v>
       </c>
       <c r="O2" t="n">
-        <v>31526.47729194456</v>
+        <v>31526.47729194457</v>
       </c>
       <c r="P2" t="n">
         <v>31526.47729194457</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16651.80453510676</v>
+        <v>-18038.11710164714</v>
       </c>
       <c r="C6" t="n">
-        <v>-16651.80453510676</v>
+        <v>-18038.11710164714</v>
       </c>
       <c r="D6" t="n">
-        <v>-16651.80453510676</v>
+        <v>-18038.11710164714</v>
       </c>
       <c r="E6" t="n">
-        <v>16975.79546489323</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="F6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="G6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="H6" t="n">
-        <v>16975.79546489323</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="I6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="J6" t="n">
-        <v>16975.79546489323</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="K6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="L6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="M6" t="n">
-        <v>16975.79546489323</v>
+        <v>15589.48289835285</v>
       </c>
       <c r="N6" t="n">
-        <v>16975.79546489323</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="O6" t="n">
-        <v>16975.79546489323</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="P6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835286</v>
       </c>
     </row>
   </sheetData>
